--- a/tools/omelox-excel/template/constants.xlsx
+++ b/tools/omelox-excel/template/constants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\develop\project\gamingcity\dev-tool\excel2data\fishery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\develop\project\gamingcity\gamecity-server-omelox\shared\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249927C8-CB3A-4DAC-88FD-55E26BC54C82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5198461-80C5-47D9-9046-9E9FD6F51189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>const</t>
-  </si>
-  <si>
-    <t>model:模型；data：数据配置；const：常量配置；lang：语言配置</t>
   </si>
   <si>
     <t>content</t>
@@ -528,13 +525,17 @@
     <t>1:双端共享2：服务器专用3：客户端专用</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>model：模型；data：数据配置；const：常量配置；lang：语言配置;  error：错误码;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -758,7 +759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -788,13 +789,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1209,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1245,14 +1246,14 @@
       </c>
     </row>
     <row r="4" spans="1:3" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="B4" s="26">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1263,150 +1264,150 @@
         <v>7</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1435,16 +1436,16 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -1473,16 +1474,16 @@
     </row>
     <row r="2" spans="1:28" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1511,712 +1512,712 @@
     </row>
     <row r="3" spans="1:28" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2250,16 +2251,16 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -2288,16 +2289,16 @@
     </row>
     <row r="2" spans="1:28" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2326,828 +2327,828 @@
     </row>
     <row r="3" spans="1:28" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9">
         <v>100000</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="9">
         <v>30</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="9">
         <v>100</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="9">
         <v>3600</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="9">
         <v>600</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="9">
         <v>100</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="9">
         <v>2000</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="9">
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="9">
         <v>30</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="9">
         <v>30</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="9">
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="9">
         <v>2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="9">
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="9">
         <v>10800</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="9">
         <v>800</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="9">
         <v>50</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="9">
         <v>0.7</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
         <v>67</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="9">
         <v>0.01</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="9">
         <v>1000</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="9">
         <v>10000</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="9">
         <v>150</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="9">
         <v>100</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
         <v>79</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="9">
         <v>5000</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="9">
         <v>3</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="9">
         <v>2</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="9">
         <v>10</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37" s="9">
         <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" s="9">
         <v>10</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="9">
         <v>10</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" s="9">
         <v>6</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" s="9">
         <v>1</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="9">
         <v>25</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="9">
         <v>35000</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" s="9">
         <v>10000000</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45" s="9">
         <v>3</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" s="9">
         <v>3.75</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47" s="9">
         <v>100</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
         <v>117</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52" s="9">
         <v>300</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="9">
         <v>30</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="9">
         <v>200</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B55" s="9">
         <v>1000</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="9">
         <v>55000</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" t="s">
         <v>137</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3181,16 +3182,16 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -3219,16 +3220,16 @@
     </row>
     <row r="2" spans="1:28" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -3257,828 +3258,828 @@
     </row>
     <row r="3" spans="1:28" s="3" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9">
         <v>100000</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="9">
         <v>30</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="9">
         <v>100</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="9">
         <v>3600</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="9">
         <v>600</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="9">
         <v>100</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="9">
         <v>2000</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="9">
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="9">
         <v>30</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="9">
         <v>30</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="9">
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="9">
         <v>2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="9">
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="9">
         <v>10800</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="9">
         <v>800</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="9">
         <v>50</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="9">
         <v>0.7</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
         <v>67</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="9">
         <v>0.01</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="9">
         <v>1000</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="9">
         <v>10000</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="9">
         <v>150</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="9">
         <v>100</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
         <v>79</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="9">
         <v>5000</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="9">
         <v>3</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="9">
         <v>2</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="9">
         <v>10</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37" s="9">
         <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" s="9">
         <v>10</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="9">
         <v>20</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" s="9">
         <v>6</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" s="9">
         <v>1</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="9">
         <v>25</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="9">
         <v>35000</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" s="9">
         <v>10000000</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45" s="9">
         <v>3</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" s="9">
         <v>3.75</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47" s="9">
         <v>100</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
         <v>117</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52" s="9">
         <v>300</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="9">
         <v>30</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="9">
         <v>200</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B55" s="9">
         <v>1000</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="9">
         <v>55000</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
